--- a/public/sheets/record.xlsx
+++ b/public/sheets/record.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Tên</t>
   </si>
@@ -35,31 +35,21 @@
     <t>Trần Thị Long Lanh Sương Sớm Mai</t>
   </si>
   <si>
-    <t>Ăn quà sai quy định 10/11/2023 (admin, 15); Đi trễ 12/11/2023 (admin, 20);</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>Không thuộc bài 10/11/2023 (admin, 5);</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị E</t>
-  </si>
-  <si>
-    <t>Đi trễ 10/11/2023 (admin, 3); Đi trễ 10/11/2023 (admin, 6);</t>
+    <t>Đi trễ 12/11/2023 (admin, 20)</t>
   </si>
   <si>
     <t>Nguyễn Lê Phi Long</t>
   </si>
   <si>
-    <t>Đi trễ 12/11/2023 (admin, 21);</t>
+    <t>Đi trễ 12/11/2023 (admin, 21)</t>
   </si>
   <si>
     <t>Phan Hoài Linh</t>
   </si>
   <si>
-    <t>Ăn quà sai quy định 10/11/2023 (admin, 4); Ăn quà sai quy định 10/11/2023 (admin, 16); Ăn quà sai quy định 12/11/2023 (admin, 17); Ăn quà sai quy định 12/11/2023 (admin, 18); Ăn quà sai quy định 12/11/2023 (admin, 19);</t>
+    <t>Ăn quà sai quy định 12/11/2023 (admin, 17)
+Ăn quà sai quy định 12/11/2023 (admin, 18)
+Ăn quà sai quy định 12/11/2023 (admin, 19)</t>
   </si>
 </sst>
 </file>
@@ -402,10 +392,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -414,7 +404,7 @@
     <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="258.223" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="50.559" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -435,88 +425,54 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>12.09</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>12.01</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1">
+        <v>12.05</v>
+      </c>
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>12.04</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B4" s="1">
+        <v>12.05</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>12.05</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>12.05</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/sheets/record.xlsx
+++ b/public/sheets/record.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Tên</t>
   </si>
@@ -32,24 +32,16 @@
     <t>Vi phạm</t>
   </si>
   <si>
-    <t>Trần Thị Long Lanh Sương Sớm Mai</t>
-  </si>
-  <si>
-    <t>Đi trễ 12/11/2023 (admin, 20)</t>
-  </si>
-  <si>
-    <t>Nguyễn Lê Phi Long</t>
-  </si>
-  <si>
-    <t>Đi trễ 12/11/2023 (admin, 21)</t>
-  </si>
-  <si>
-    <t>Phan Hoài Linh</t>
-  </si>
-  <si>
-    <t>Ăn quà sai quy định 12/11/2023 (admin, 17)
-Ăn quà sai quy định 12/11/2023 (admin, 18)
-Ăn quà sai quy định 12/11/2023 (admin, 19)</t>
+    <t>Xếp loại</t>
+  </si>
+  <si>
+    <t>Trần Thị F</t>
+  </si>
+  <si>
+    <t>Không thuộc bài 16/11/2023 (admin, 1)</t>
+  </si>
+  <si>
+    <t>Tôt</t>
   </si>
 </sst>
 </file>
@@ -392,22 +384,23 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38.848" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="50.559" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="44.703" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10.569" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,13 +416,16 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>12.09</v>
+        <v>12.05</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -438,41 +434,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <v>12.05</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
-        <v>12.05</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/sheets/record.xlsx
+++ b/public/sheets/record.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+  <si>
+    <t>SƠ KẾT VI PHẠM CỦA HỌC SINH</t>
+  </si>
   <si>
     <t>Tên</t>
   </si>
@@ -35,13 +38,47 @@
     <t>Xếp loại</t>
   </si>
   <si>
-    <t>Trần Thị F</t>
-  </si>
-  <si>
-    <t>Không thuộc bài 16/11/2023 (admin, 1)</t>
+    <t>Trần Thị Long Lanh Sương Sớm Mai</t>
+  </si>
+  <si>
+    <t>Ăn quà sai quy định 10/11/2023 (admin, 15)
+Đi trễ 12/11/2023 (admin, 20)
+Ăn quà sai quy định 23/02/2024 (admin, 22)</t>
   </si>
   <si>
     <t>Tôt</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>Không thuộc bài 10/11/2023 (admin, 5)</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị E</t>
+  </si>
+  <si>
+    <t>Đi trễ 10/11/2023 (admin, 3)
+Đi trễ 10/11/2023 (admin, 6)</t>
+  </si>
+  <si>
+    <t>Nguyễn Lê Phi Long</t>
+  </si>
+  <si>
+    <t>Đi trễ 12/11/2023 (admin, 21)</t>
+  </si>
+  <si>
+    <t>Phan Hoài Linh</t>
+  </si>
+  <si>
+    <t>Ăn quà sai quy định 10/11/2023 (admin, 4)
+Ăn quà sai quy định 10/11/2023 (admin, 16)
+Ăn quà sai quy định 12/11/2023 (admin, 17)
+Ăn quà sai quy định 12/11/2023 (admin, 18)
+Ăn quà sai quy định 12/11/2023 (admin, 19)</t>
+  </si>
+  <si>
+    <t>Khá</t>
   </si>
 </sst>
 </file>
@@ -49,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -57,6 +94,24 @@
       <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF1212FD"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -80,8 +135,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -384,63 +445,156 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="38.848" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="44.703" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="50.559" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" customHeight="1" ht="25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>12.09</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12.01</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12.04</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
         <v>12.05</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3">
+        <v>12.05</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
